--- a/RepB_SinStopWords_TXTs.xlsx
+++ b/RepB_SinStopWords_TXTs.xlsx
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,31 +427,37 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.8" customWidth="1" min="1" max="1"/>
+    <col width="8.4" customWidth="1" min="2" max="2"/>
+    <col width="22.8" customWidth="1" min="3" max="3"/>
+    <col width="5570.4" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ranking</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Documento</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Contenido</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,7 +477,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -484,7 +497,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">

--- a/RepB_SinStopWords_TXTs.xlsx
+++ b/RepB_SinStopWords_TXTs.xlsx
@@ -462,17 +462,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.089</t>
+          <t>0.102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Noticia N° 10.txt</t>
+          <t>Noticia N° 09.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>título: taylor swift: estadounidense puede ser barato verla buenos aires comprar ticket ángeles resumen: alto costo entradas presenciar show artista país origen generó polémica fanáticos, portal financiero eeuu recomendó venir recitales argentina contenido: jun, medio quejas alto costo venden unidos entradas tour exitosa cantante taylor swift, sitio finanzas norteamerincano hizo llamativo cálculo: portal estimó cuánto cuesta viajar angeles buenos aires comprar tickets presentación cantante argentina vez comprar tickets ver actuación ángleles. conclusión sorprendente: aunque computar estadía comida, costo pasaje avión compra entradas recital buenos aires resultó combo económico ir verla país origen. según morning brew “viajar avión angeles buenos aires comprar tickets ver cantante pop taylor swift barato estadounidense ver artista propio país “gracias inflación argentina”. acuerdo precios publicados cuenta twitter sitio especializado, @morningbrew, comparación precios siguiente: precio entradas ver taylor swift angeles: dólares pasajes aéreos ángeles buenos aires: dólares valor entradas concierto buenos aires: dólares. “gracias inflación argentina, realidad barato alguien ángeles volar argentina concierto tour ir estadio sofi”, indicó. cantante pop estadounidense taylor swift presentará argentina dos conciertos estadio river plate noviembre próximos marco gira internacional “the tour”, informó través comunicado prensa. según anunció, entradas ambos shows venta clientes banco patagonia hoy horas agotar stock, suceda primero, venta general comenzará mañana, martes junio precios, podrán pagar cuotas tarjeta entidad bancaria promociana recital, parten $, ubicación denominada centenario alta visión restringida detrás escenario, puede disfrutar música aprecia totalidad show $, entradas caras. dólares, tipo cambio libre, precio menor usd entrada costosa. gira internacional comenzará agosto tres fechas ciudad méxico. luego, tras dos conciertos estadio river, presentaciones continuarán brasil show noviembre río janeiro dos mes san pablo. todas fechas américa latina, taylor swift contará cantante norteamericana sabrina carpenter invitada especial. seguir leyendo urls imagenes:</t>
+          <t>título: aporte dólar soja, banco central compró solo usd millones mercado resumen: entidad monetaria encadenó ruedas operativas compras netas, margen achicó primer día agregado tipo cambio especial exportaciones sojeras contenido: jun, sesión usd millones segmento contado spot, liquidaciones programa incremento exportador economías regionales, dólar, aportaron usd millones, volumen aportado ventas soja derivados, gozaron estándar cambiario semana pasada. bcra concluyó intervención cambiaria día saldo neto comprador solo millones dólares. operaciones dólar agro registran tercera etapa ingresos usd millones abril parte. asimismo, empezó balance bcra intervención cambiaria negativo usd millones, mientras junio sostiene im saldo comprador millones dólares. bcra aceleró resguardo escasas reservas, medida afecta provincias municipios, momentos ministerio economía planea nuevo canje voluntario bonos pesos objetivo despejar vencimientos. ministro economía, sergio massa, viajará washington cerca junio procura cerrar readecuación acuerdo fondo monetario internacional fmi, permitiría argentina obtener adelanto desembolsos nuevas metas cumplir, luego impacto sequía exportaciones sector agro, “las negociaciones argentina funcionarios técnicos fondo avanzan hace casi dos meses través reuniones virtuales, definiendo modificar viejo acuerdo, virtualmente suspendido luego cumplieran metas reservas fiscales primer trimestre ″, comentaron expertos research traders. objetivo economía fondo adelante, menos, parte desembolsos comprometidos fin año usd millones, ayudaría reforzar reservas año exportaciones sector agro caerían cerca usd millones, acuerdo proyecciones bolsa comercio rosario bcr. tales desembolsos dudas cuánto podría utilizar intervenir mercado cambiario. fondo aceptaría bcra intervenga eventuales situaciones stress. todavía resuelto monto fmi consentiría intervenciones. reservas internacionales brutas banco central crecieron semana pasada usd millones finalizaron millones dólares. informe anker latinoamérica subrayó cuanto reservas líquidas bcra, “su disponibilidad hoy dada gran medida encajes cuentas bancarias monedas depositados bcra -usd millones-. estabilidad depósitos moneda extranjera crucial sostener capacidad intervención bcra”. luego diversas gestiones ministro massa incentivar pago importaciones divisa china, expandió uso yuanes comercio exterior. enero mayo operaciones equivalente usd millones. además, dos empresas fabricantes electrónica confirmaron pagarán compromisos deuda total usd millones moneda, alivio arcas bcra superará usd millones primer trimestre seguir leyendo: urls imagenes:</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.069</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -502,17 +502,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.069</t>
+          <t>0.054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Noticia N° 05.txt</t>
+          <t>Noticia N° 06.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>título: billetera google puede descargarse ser utilizada argentina resumen: redes sociales usuarios comentaron herramienta celulares pudieron cargarle datos tarjetas crédito bancos argentinos contenido: jun, fernando meaños google wallet, billetera electrónica utilizada mundo administrada gigante internet, puede descargarse argentina hacer pagos “contactless” comercios tarjetas crédito débito emitidas país. usuarios, especial habituados usar herramienta países, comenzaron comentar novedad redes sociales compartir experiencias acerca utilización. mecanismo registrarse, acuerdo pudo comprobar infobae, rápido simple. vez descargada app teléfono celular, lleva pocos segundos, hace falta anotar datos personales, incluyendo teléfono correo electrónico gmail. vez cumplido paso, posible cargar tarjetas crédito bancos argentinos. fin, pide nuevo paso seguridad, tal recibir código numérico través sms acreditar través llamado banco emisor. billetera permite designarla “medio pago predeterminado” caso mismo teléfono celular cargadas herramientas uso similar. si bien empresa aún informó disponibilidad país usuarios esperaban posibilidad noticia empezó expandirse redes. utilizaban tarjetas emitidas extranjero, podrán ahora agregar bancos argentinos. momento lanzamiento lugares mundo, google explicado aplicación wallet permite opciones almacenar tarjetas crédito débito destinada cargar clase productos tarjetas fidelidad supermercados cadenas comerciales acumular puntos premios, gift cards hacer regalos, certificados vacunación covid, tarjetas embarque vuelo tarjetas viajar transporte público. último, usuario @mockelh adelantó pedir: “salió google wallet arg. @tarjetasubeok dale habilitá podamos cargar tarjeta pagar reloj”. usuario blog especializado viajes, @sirchandlerblog, señaló: “esto útil vida diaria, fundamental viajes. ciudades sistemas abiertos sube, permiten pago directo celulares transporte público. así río janeiro, londres new york”. esperar saber cuáles opciones posibles argentina. cierto característica principal billetera google wallet google pay funciona sistema contactless contacto, decir, acercando propio celular terminal pos conocida posnet, marcas registre pago. forma, casos puede acortar mínimo momento pago comparación alternativas. casi desuso opción pagar tarjeta, esperar ticket firmarlo, pago través vía busca tener necesidad llevar todas tarjetas bolsillo sino cargarlas “digitalmente” celular. diferencia pagos código qr, difundidos argentina, requieren abrir aplicación enfocar cámara celular concretar pago. clave poder disponer medio pago, utilizado países mundo, teléfono celular cuente tecnología nfc, viene expandiéndose últimos años argentina. tecnología presente celulares android mercado viabiliza “pago aproximación”, simplemente acercando teléfono terminal pos necesidad utilizar tarjeta plástico. seguir leyendo: urls imagenes:</t>
+          <t>título: inflación mayo argentina superó venezuela, según estimaciones privadas resumen: abril registrado resultado; variado precios último año ambos países espera diciembre contenido: jun, martín kanenguiser inflación argentina mayo superó venezuela, vez más, según estimaciones privadas ambos países. dato observatorio venezolano finanzas ovf, siguen analistas debido falta rigor estadísticas oficiales, marcó suba precios mes pasado, desaceleración últimos meses. argentina, según mayoría estimaciones, dato mes pasado rondó %, mientras gobierno reza ubique levemente debajo cifra. abril, argentina superado venezuela: registró %, frente informado ovf informado banco central venezuela, daba conocer información octubre año pasado. últimos meses mayo-mayo, según ovf, inflación país gobernado nicolás maduro llegó %, baja respecto registrado abril. además, enero suba precios acumulada %. tendencias inflación últimos meses divergentes: marzo ovf registró venezuela %, abril mayo %; tanto, indec registró argentina marzo, abril estima mes quedará torno interanual; conocerá dato organismo lidera marco lavagna. según ovf, “en medio economía evidentes signos contracción, tasa inflación da tregua. así, mayo tasa inflación mensual alcanzó %, acumulada anualizada %. respecto abril, tasa mensual inflación triplicó aunque tasa doce meses desaceleró”. “este comportamiento inflación ocurriendo entorno signos significativa caída nivel actividad indiscutibles, ostensibles menores ventas comercio producción industrial contrajo primer trimestre ″, indicó. además, “la debilidad demanda agregada notoria debido salarios pensiones sector público pronunciadamente rezagados respecto inflación ejecución gasto parte gobierno baja”. “al comparar cifra inflación mayo respecto aumento tipo cambio mismo mes, clara estrecha relación ambas variables, obstante, mencionó, debilidad demanda, explicada política compresión salarial venido aplicando gobierno”, subrayó ovf. cuanto principales componentes conforman índice nacional precios consumidor, destacaron “los aumentos experimentados rubros esparcimiento %, vestido calzado %, equipamiento hogar alquiler vivienda %. alimentos alzas modestas, mayo incrementaron %”. “todo ello pone manifiesto, política económica aplicada sido ineficaz contener alza precios, aún retracción inducida demanda agregada”, concluyó organismo independiente régimen autoritario maduro. abril, banco central venezuela informado aumento cuatro meses, luego difundir datos medio año. tanto, mayoría relevamientos precios consumidor consultoras argentinas anticipan ipc torno %. c&amp;t indicó relevamiento precios minoristas región gba “presentó alza mensual %, superando largamente variación abril mayo año pasado. así, variación doce meses trepó %, mayor agosto ″. “el rubro mayor incremento vivienda %, reflejando subas gas electricidad principalmente”, aclaró. bienes servicios varios “ocuparon segundo lugar, alza %, explicada cigarrillos artículos tocador”. tanto, “el comportamiento esparcimiento fuertemente influido alza dólares financieros fines abril, vio reflejado turismo productos electrónicos”. vez, “alimentos bebidas creció mes. arrancó mes gran impulso luego moderando. verduras, lácteos derivados harina destacaron, igual alimentos consumidos hogar llevar”. “en salud destacó incremento medicamentos, sumó nuevo ajuste prepagas”, indicó c&amp;t. “en equipamiento mantenimiento hogar, artefactos hogar rol preponderante mano alza dólares financieros pesar liquidaciones mes”, concluyó. parte, ecogo informó si bien última semana mes pasado registró fuerte desaceleración lugar variación alimentos respecto semana anterior, términos generales inflación sido ciento. particular, aumento precios alimentos sido ciento. “si consideramos además evolución alimentos consumidos hogar %, inflación alimentos alcanzaría %”, aclaró consultora dirige marina dal poggeto. lado, lcg detalló “el índice alimentos bebidas presentó inflación mensual promedio últimas semanas punta punta mismo período”. mes sumarán aumentos precios servicios transporte, prepagas, colegios privados combustibles, valores regulados. equipo económico trata controlar cuestión cambiaria inflación acelere todavía motivo resiste pedido fmi acelerar devaluación tipo cambio oficial. seguir leyendo: urls imagenes:</t>
         </is>
       </c>
     </row>
